--- a/B8 Tables/US News Ranks.xlsx
+++ b/B8 Tables/US News Ranks.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TooFastDan\Documents\MD_PhD Application\Python Analysis\B8 Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F213E7B-6AD1-401E-8FB9-72775141E17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C520C1B8-0F85-4122-938D-9EB88864FB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10605" windowWidth="28125" windowHeight="5625" xr2:uid="{BE39E35B-5B51-405B-8D49-632762D85643}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{BE39E35B-5B51-405B-8D49-632762D85643}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2022" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Harvard</t>
   </si>
   <si>
-    <t>MSTP Program</t>
-  </si>
-  <si>
     <t>US News Research Rank (2022)</t>
   </si>
   <si>
@@ -176,6 +173,93 @@
   </si>
   <si>
     <t>Illinois</t>
+  </si>
+  <si>
+    <t>MD/PhD Program</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Chicago-Pritzker</t>
+  </si>
+  <si>
+    <t>Southern Cal-Keck</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>UC Davis</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Dartmouth-Geisel</t>
+  </si>
+  <si>
+    <t>Jefferson-Kimmel</t>
+  </si>
+  <si>
+    <t>Temple-Katz</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Virginia Commonwealth</t>
+  </si>
+  <si>
+    <t>Zucker Hofstra Northwell</t>
+  </si>
+  <si>
+    <t>Wayne State</t>
+  </si>
+  <si>
+    <t>Rutgers New Jersey</t>
+  </si>
+  <si>
+    <t>Rutgers-RW Johnson</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Texas A &amp; M</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Buffalo-Jacobs</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>SUNY Upstate</t>
+  </si>
+  <si>
+    <t>MU South Carolina</t>
   </si>
 </sst>
 </file>
@@ -536,10 +620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D7297F-552C-42F8-9A7D-3B77144ECC32}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,375 +634,1008 @@
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>69</v>
+      </c>
+      <c r="D18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
-      </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>74</v>
+      </c>
+      <c r="D26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
-      </c>
-      <c r="B26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>46</v>
+      </c>
+      <c r="D31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="B30">
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="B31">
+      <c r="C33">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B35">
         <v>33</v>
       </c>
-      <c r="B32">
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B33">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="B34">
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>69</v>
+      </c>
+      <c r="D39">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>32</v>
+      </c>
+      <c r="D41">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42">
         <v>36</v>
       </c>
-      <c r="B35">
+      <c r="D42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>59</v>
+      </c>
+      <c r="D43">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
+      <c r="B50">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <v>46</v>
+      </c>
+      <c r="D50">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>84</v>
+      </c>
+      <c r="D51">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>55</v>
+      </c>
+      <c r="C53">
+        <v>89</v>
+      </c>
+      <c r="D53">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54">
+        <v>55</v>
+      </c>
+      <c r="D54">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>59</v>
+      </c>
+      <c r="D55">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>51</v>
+      </c>
+      <c r="D56">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>67</v>
+      </c>
+      <c r="D57">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>84</v>
+      </c>
+      <c r="D58">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>61</v>
+      </c>
+      <c r="C59">
         <v>44</v>
       </c>
-      <c r="B43">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46">
-        <v>55</v>
+      <c r="D59">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>51</v>
+      </c>
+      <c r="D60">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>66</v>
+      </c>
+      <c r="C61">
+        <v>76</v>
+      </c>
+      <c r="D61">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>66</v>
+      </c>
+      <c r="D62">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>66</v>
+      </c>
+      <c r="C63">
+        <v>89</v>
+      </c>
+      <c r="D63">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
+        <v>70</v>
+      </c>
+      <c r="D64">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
+        <v>70</v>
+      </c>
+      <c r="C65">
+        <v>58</v>
+      </c>
+      <c r="D65">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>70</v>
+      </c>
+      <c r="D66">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>74</v>
+      </c>
+      <c r="C67">
+        <v>51</v>
+      </c>
+      <c r="D67">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>75</v>
+      </c>
+      <c r="C68">
+        <v>84</v>
+      </c>
+      <c r="D68">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>75</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>81</v>
+      </c>
+      <c r="C70">
+        <v>91</v>
+      </c>
+      <c r="D70">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>83</v>
+      </c>
+      <c r="C71">
+        <v>67</v>
+      </c>
+      <c r="D71">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>88</v>
+      </c>
+      <c r="D72">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>90</v>
+      </c>
+      <c r="C73">
+        <v>76</v>
+      </c>
+      <c r="D73">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
